--- a/TeamBlueProjectPlan.xlsx
+++ b/TeamBlueProjectPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Affiliated Engineers</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>week 3 - 7</t>
+  </si>
+  <si>
+    <t>Finalizing Phase</t>
+  </si>
+  <si>
+    <t>Week 9-10</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,23 +516,34 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
